--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\My Python Projects\birthdays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Birthdays\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1008">
   <si>
     <t>ФИО</t>
   </si>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B234"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11471,1743 +11471,2683 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="39.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="29" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="32" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="31" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="27" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="30" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="26" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="27" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="18" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="31" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="30" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="34" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="30" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="26" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="30" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>906</v>
-      </c>
-      <c r="B2" s="18">
-        <v>23102</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>907</v>
-      </c>
-      <c r="D2" s="20">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="B3" s="18">
-        <v>33695</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="D3" s="20">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="B4" s="18">
-        <v>34060</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="D4" s="20">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="B5" s="18">
-        <v>19086</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="D5" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="B6" s="18">
-        <v>20181</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>888</v>
-      </c>
-      <c r="D6" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="B7" s="18">
-        <v>24199</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="D7" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="B8" s="18">
-        <v>31869</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="B9" s="18">
-        <v>33696</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D9" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B10" s="18">
-        <v>34426</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9527</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10972</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11328</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11352</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11694</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12788</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5">
+        <v>13178</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13544</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13882</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5">
+        <v>14251</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>14618</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="20">
-        <v>42462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>994</v>
-      </c>
-      <c r="B11" s="18">
-        <v>14338</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="B12" s="18">
-        <v>21643</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="D12" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="B13" s="18">
-        <v>22009</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D13" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="B14" s="18">
-        <v>25296</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D14" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="B15" s="18">
-        <v>30044</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="D15" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="B16" s="18">
-        <v>31505</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>14635</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
+        <v>14993</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15730</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="5">
+        <v>16077</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16078</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16819</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="5">
+        <v>16826</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17188</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5">
+        <v>17899</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18265</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18271</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18289</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5">
+        <v>18632</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18634</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="6">
+        <v>18642</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="6">
+        <v>19003</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="5">
+        <v>19017</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5">
+        <v>19375</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>19384</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="6">
+        <v>19725</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20107</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20456</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="5">
+        <v>20469</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20485</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5">
+        <v>20821</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="6">
+        <v>20822</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="6">
+        <v>20847</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="6">
+        <v>21186</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="6">
+        <v>21189</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="6">
+        <v>21202</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="6">
+        <v>21551</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="5">
+        <v>21556</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="6">
+        <v>21559</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="6">
+        <v>21565</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="6">
+        <v>21565</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="6">
+        <v>21923</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="5">
+        <v>21924</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="6">
+        <v>21927</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>932</v>
-      </c>
-      <c r="B17" s="18">
-        <v>31505</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>933</v>
-      </c>
-      <c r="D17" s="20">
-        <v>42463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="B18" s="18">
-        <v>31871</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="20">
-        <v>42464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="B19" s="18">
-        <v>34428</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="D19" s="20">
-        <v>42464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="B20" s="18">
-        <v>13610</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="6">
+        <v>21945</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="6">
+        <v>22283</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="6">
+        <v>22283</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" s="6">
+        <v>22283</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" s="6">
+        <v>22283</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="6">
+        <v>22290</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="6">
+        <v>22295</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="5">
+        <v>22305</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="6">
+        <v>22305</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="6">
+        <v>22647</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="6">
+        <v>22651</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="6">
+        <v>22653</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="5">
+        <v>22657</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="5">
+        <v>22667</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="5">
+        <v>22676</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="6">
+        <v>22676</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5">
+        <v>23014</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="5">
+        <v>23021</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="5">
+        <v>23021</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="6">
+        <v>23035</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="6">
+        <v>23038</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="6">
+        <v>23038</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="6">
+        <v>23041</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="6">
+        <v>23386</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="6">
+        <v>23393</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="5">
+        <v>23395</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" s="6">
+        <v>23404</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="B21" s="18">
-        <v>22741</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="D21" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B22" s="18">
-        <v>26759</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="D22" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="B23" s="18">
-        <v>28585</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="D23" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="B24" s="18">
-        <v>29316</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="D24" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>934</v>
-      </c>
-      <c r="B25" s="18">
-        <v>31142</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>935</v>
-      </c>
-      <c r="D25" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>993</v>
-      </c>
-      <c r="B26" s="18">
-        <v>34064</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="5">
+        <v>23406</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="6">
+        <v>23750</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="6">
+        <v>23754</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="6">
+        <v>24109</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="6">
+        <v>24111</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="5">
+        <v>24118</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="6">
+        <v>24136</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="6">
+        <v>24137</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="6">
+        <v>24473</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="5">
+        <v>24497</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="6">
+        <v>24855</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" s="6">
+        <v>24860</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="6">
+        <v>24868</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91" s="6">
+        <v>25211</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="5">
+        <v>25218</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="5">
+        <v>25588</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="5">
+        <v>25591</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="5">
+        <v>25592</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="5">
+        <v>25934</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="6">
+        <v>25942</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="5">
+        <v>25947</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B99" s="6">
+        <v>25961</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="6">
+        <v>26301</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="6">
+        <v>26313</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="6">
+        <v>26319</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="6">
+        <v>26319</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="20">
-        <v>42465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>823</v>
-      </c>
-      <c r="B27" s="18">
-        <v>22742</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="D27" s="20">
-        <v>42466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>964</v>
-      </c>
-      <c r="B28" s="18">
-        <v>26760</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D28" s="20">
-        <v>42466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="B29" s="18">
-        <v>34795</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="D29" s="20">
-        <v>42466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="B30" s="18">
-        <v>22013</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="20">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B31" s="18">
-        <v>22378</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D31" s="20">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="B32" s="18">
-        <v>27857</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="D32" s="20">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="B33" s="18">
-        <v>30048</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="D33" s="20">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="B34" s="18">
-        <v>32240</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="D34" s="20">
-        <v>42467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="B35" s="18">
-        <v>14343</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="D35" s="20">
-        <v>42468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="B36" s="18">
-        <v>18726</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="D36" s="20">
-        <v>42468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="B37" s="18">
-        <v>27858</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="D37" s="20">
-        <v>42468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="B38" s="18">
-        <v>24571</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="D38" s="20">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="B39" s="18">
-        <v>24937</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="D39" s="20">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>995</v>
-      </c>
-      <c r="B40" s="18">
-        <v>27128</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="D40" s="20">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>900</v>
-      </c>
-      <c r="B41" s="18">
-        <v>29685</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="D41" s="20">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>966</v>
-      </c>
-      <c r="B42" s="18">
-        <v>30050</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="D42" s="20">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="B43" s="18">
-        <v>22016</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D43" s="20">
-        <v>42470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="B44" s="18">
-        <v>14712</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="D44" s="20">
-        <v>42471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="B45" s="18">
-        <v>22018</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="D45" s="20">
-        <v>42472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="B46" s="18">
-        <v>22383</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="D46" s="20">
-        <v>42472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="B47" s="18">
-        <v>34071</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>939</v>
-      </c>
-      <c r="D47" s="20">
-        <v>42472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="B48" s="18">
-        <v>34071</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>939</v>
-      </c>
-      <c r="D48" s="20">
-        <v>42472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="B49" s="18">
-        <v>22749</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D49" s="20">
-        <v>42473</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="B50" s="18">
-        <v>30054</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="D50" s="20">
-        <v>42473</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="B51" s="18">
-        <v>31880</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="D51" s="20">
-        <v>42473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="B52" s="18">
-        <v>31880</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>927</v>
-      </c>
-      <c r="D52" s="20">
-        <v>42473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="B53" s="18">
-        <v>34802</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="20">
-        <v>42473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="B54" s="18">
-        <v>14715</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="D54" s="20">
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>954</v>
-      </c>
-      <c r="B55" s="18">
-        <v>19828</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="D55" s="20">
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>891</v>
-      </c>
-      <c r="B56" s="18">
-        <v>20559</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="D56" s="20">
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="B57" s="18">
-        <v>31151</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="D57" s="20">
-        <v>42474</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="B58" s="18">
-        <v>28960</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="D58" s="20">
-        <v>42475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="B59" s="18">
-        <v>35170</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="D59" s="20">
-        <v>42475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="B60" s="18">
-        <v>27135</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="D60" s="20">
-        <v>42476</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="B61" s="18">
-        <v>27867</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D61" s="20">
-        <v>42477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="B62" s="18">
-        <v>30423</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="D62" s="20">
-        <v>42477</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>909</v>
-      </c>
-      <c r="B63" s="18">
-        <v>31154</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D63" s="20">
-        <v>42477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="B64" s="18">
-        <v>23119</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="5">
+        <v>26322</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" s="6">
+        <v>26326</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="6">
+        <v>26677</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="5">
+        <v>27037</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="6">
+        <v>27040</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="5">
+        <v>27047</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="6">
+        <v>27425</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="5">
+        <v>27773</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="6">
+        <v>28143</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="6">
+        <v>28517</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B114" s="6">
+        <v>28870</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B115" s="6">
+        <v>28873</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="6">
+        <v>28881</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="5">
+        <v>28882</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="6">
+        <v>28883</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="6">
+        <v>28886</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="6">
+        <v>29228</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" s="6">
+        <v>29229</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="6">
+        <v>29240</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" s="5">
+        <v>29242</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="5">
+        <v>29606</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" s="5">
+        <v>29977</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B126" s="6">
+        <v>30319</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="5">
+        <v>30321</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="6">
+        <v>30325</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="6">
+        <v>30344</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130" s="5">
+        <v>30703</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="10"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="6">
+        <v>30703</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B132" s="6">
+        <v>31051</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="10"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" s="6">
+        <v>31052</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="5">
+        <v>31054</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" s="6">
+        <v>31057</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="5">
+        <v>31058</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="5">
+        <v>31059</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="6">
+        <v>31074</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="6">
+        <v>31076</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="6">
+        <v>31417</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141" s="6">
+        <v>31430</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="6">
+        <v>31437</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" s="5">
+        <v>31792</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="20">
-        <v>42478</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="B65" s="18">
-        <v>20198</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="D65" s="20">
-        <v>42479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="B66" s="18">
-        <v>24947</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D66" s="20">
-        <v>42479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="B67" s="18">
-        <v>25312</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="D67" s="20">
-        <v>42479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="B68" s="18">
-        <v>29695</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="D68" s="20">
-        <v>42479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="B69" s="18">
-        <v>17277</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="D69" s="20">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="B70" s="18">
-        <v>20565</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D70" s="20">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="B71" s="18">
-        <v>24217</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D71" s="20">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>986</v>
-      </c>
-      <c r="B72" s="18">
-        <v>24582</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="D72" s="20">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="B73" s="18">
-        <v>31522</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="20">
-        <v>42480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="B74" s="18">
-        <v>12895</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="D74" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="B75" s="18">
-        <v>18009</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="D75" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>959</v>
-      </c>
-      <c r="B76" s="18">
-        <v>21661</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="D76" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B77" s="18">
-        <v>22757</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D77" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="B78" s="18">
-        <v>23488</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D78" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="B79" s="18">
-        <v>28236</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="D79" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="B80" s="18">
-        <v>29697</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="D80" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="B81" s="18">
-        <v>30427</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="D81" s="20">
-        <v>42481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="B82" s="18">
-        <v>11070</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="D82" s="20">
-        <v>42482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="B83" s="18">
-        <v>13627</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" s="20">
-        <v>42482</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B84" s="18">
-        <v>13992</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D84" s="20">
-        <v>42482</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="B85" s="18">
-        <v>24219</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="D85" s="20">
-        <v>42482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B86" s="18">
-        <v>28237</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D86" s="20">
-        <v>42482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="B87" s="18">
-        <v>20933</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="D87" s="20">
-        <v>42483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="B88" s="18">
-        <v>22759</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="D88" s="20">
-        <v>42483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="B89" s="18">
-        <v>26777</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D89" s="20">
-        <v>42483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>992</v>
-      </c>
-      <c r="B90" s="18">
-        <v>33717</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D90" s="20">
-        <v>42483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>930</v>
-      </c>
-      <c r="B91" s="18">
-        <v>18012</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>931</v>
-      </c>
-      <c r="D91" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>950</v>
-      </c>
-      <c r="B92" s="18">
-        <v>23125</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="D143" s="10"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B144" s="5">
+        <v>32157</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" s="5">
+        <v>32161</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="5">
+        <v>32164</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="6">
+        <v>32172</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="10"/>
+    </row>
+    <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="5">
+        <v>32512</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="5">
+        <v>32527</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6">
+        <v>32537</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="5">
+        <v>32881</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="6">
+        <v>33613</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B153" s="6">
+        <v>33630</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D92" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="B93" s="18">
-        <v>24221</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>599</v>
-      </c>
-      <c r="D93" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="B94" s="18">
-        <v>25317</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="D94" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="B95" s="18">
-        <v>25682</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="D95" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="B96" s="18">
-        <v>30065</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="20">
-        <v>42484</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="B97" s="18">
-        <v>19109</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="D97" s="20">
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="B98" s="18">
-        <v>19839</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="D98" s="20">
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>951</v>
-      </c>
-      <c r="B99" s="18">
-        <v>23492</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" s="20">
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="B100" s="18">
-        <v>24587</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="D100" s="20">
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B101" s="18">
-        <v>25683</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="20">
-        <v>42485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="B102" s="18">
-        <v>18744</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>962</v>
-      </c>
-      <c r="D102" s="20">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="B103" s="18">
-        <v>22032</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="D103" s="20">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="B104" s="18">
-        <v>22762</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D104" s="20">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>911</v>
-      </c>
-      <c r="B105" s="18">
-        <v>26049</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="D105" s="20">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="B106" s="18">
-        <v>32989</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="D106" s="20">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="B107" s="18">
-        <v>18015</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D107" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="B108" s="18">
-        <v>19111</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="D108" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="B109" s="18">
-        <v>22033</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="D109" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="B110" s="18">
-        <v>22763</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D110" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="B111" s="18">
-        <v>26781</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="D111" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="B112" s="18">
-        <v>31529</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="D112" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="B113" s="18">
-        <v>31529</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="D113" s="20">
-        <v>42487</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="B114" s="18">
-        <v>11441</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" s="20">
-        <v>42488</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="B115" s="18">
-        <v>19477</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="D115" s="20">
-        <v>42488</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="B116" s="18">
-        <v>33722</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>998</v>
-      </c>
-      <c r="D116" s="20">
-        <v>42488</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="B117" s="18">
-        <v>15460</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="D117" s="20">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="B118" s="18">
-        <v>23861</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="20">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="B119" s="18">
-        <v>32262</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D119" s="20">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="B120" s="18">
-        <v>34453</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>969</v>
-      </c>
-      <c r="D120" s="20">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="B121" s="18">
-        <v>28975</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="D121" s="20">
-        <v>42490</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="B122" s="18">
-        <v>29341</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="D122" s="20">
-        <v>42490</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="B123" s="18">
-        <v>30071</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D123" s="20">
-        <v>42490</v>
-      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="5">
+        <v>33980</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" s="6">
+        <v>34708</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" s="10"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" s="5">
+        <v>34721</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" s="5">
+        <v>35071</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B158" s="6">
+        <v>35074</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D158" s="10"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B159" s="6">
+        <v>35436</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="10"/>
+    </row>
+    <row r="160" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
+    </row>
+    <row r="161" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="10"/>
+    </row>
+    <row r="163" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+    </row>
+    <row r="166" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="2:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>